--- a/momentum_strategy.xlsx
+++ b/momentum_strategy.xlsx
@@ -55,27 +55,39 @@
     <t>MMM</t>
   </si>
   <si>
+    <t>IRM</t>
+  </si>
+  <si>
+    <t>UHS</t>
+  </si>
+  <si>
     <t>MHK</t>
   </si>
   <si>
-    <t>IRM</t>
-  </si>
-  <si>
-    <t>UHS</t>
-  </si>
-  <si>
     <t>TYL</t>
   </si>
   <si>
+    <t>DHI</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
     <t>CBRE</t>
   </si>
   <si>
-    <t>DHI</t>
+    <t>HWM</t>
   </si>
   <si>
     <t>RTX</t>
   </si>
   <si>
+    <t>LMT</t>
+  </si>
+  <si>
+    <t>BRO</t>
+  </si>
+  <si>
     <t>EFX</t>
   </si>
   <si>
@@ -85,121 +97,109 @@
     <t>SO</t>
   </si>
   <si>
-    <t>LMT</t>
-  </si>
-  <si>
-    <t>BRO</t>
-  </si>
-  <si>
-    <t>HWM</t>
+    <t>FICO</t>
+  </si>
+  <si>
+    <t>GDDY</t>
+  </si>
+  <si>
+    <t>PHM</t>
+  </si>
+  <si>
+    <t>AFL</t>
   </si>
   <si>
     <t>WELL</t>
   </si>
   <si>
-    <t>FICO</t>
-  </si>
-  <si>
-    <t>PHM</t>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>HCA</t>
+  </si>
+  <si>
+    <t>VTR</t>
   </si>
   <si>
     <t>AEP</t>
   </si>
   <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>AFL</t>
-  </si>
-  <si>
-    <t>VTR</t>
+    <t>TRGP</t>
+  </si>
+  <si>
+    <t>DUK</t>
+  </si>
+  <si>
+    <t>LEN</t>
+  </si>
+  <si>
+    <t>MCK</t>
+  </si>
+  <si>
+    <t>EIX</t>
+  </si>
+  <si>
+    <t>CHRW</t>
+  </si>
+  <si>
+    <t>TMUS</t>
+  </si>
+  <si>
+    <t>MSI</t>
   </si>
   <si>
     <t>PNW</t>
   </si>
   <si>
-    <t>GDDY</t>
-  </si>
-  <si>
-    <t>EIX</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>DUK</t>
-  </si>
-  <si>
-    <t>HCA</t>
+    <t>AJG</t>
   </si>
   <si>
     <t>NEM</t>
   </si>
   <si>
-    <t>TMUS</t>
+    <t>CTAS</t>
   </si>
   <si>
     <t>IP</t>
   </si>
   <si>
-    <t>LEN</t>
-  </si>
-  <si>
-    <t>MCK</t>
+    <t>CFG</t>
+  </si>
+  <si>
+    <t>NDAQ</t>
+  </si>
+  <si>
+    <t>FOX</t>
+  </si>
+  <si>
+    <t>NVR</t>
+  </si>
+  <si>
+    <t>EBAY</t>
+  </si>
+  <si>
+    <t>FOXA</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>VLTO</t>
   </si>
   <si>
     <t>MO</t>
   </si>
   <si>
-    <t>CFG</t>
-  </si>
-  <si>
-    <t>EBAY</t>
-  </si>
-  <si>
-    <t>AJG</t>
-  </si>
-  <si>
-    <t>MSI</t>
-  </si>
-  <si>
-    <t>NVR</t>
-  </si>
-  <si>
-    <t>TRGP</t>
+    <t>ABBV</t>
   </si>
   <si>
     <t>PEG</t>
   </si>
   <si>
-    <t>CHRW</t>
-  </si>
-  <si>
-    <t>ICE</t>
-  </si>
-  <si>
-    <t>VLTO</t>
-  </si>
-  <si>
-    <t>FITB</t>
-  </si>
-  <si>
-    <t>TFC</t>
-  </si>
-  <si>
-    <t>UNH</t>
-  </si>
-  <si>
-    <t>HIG</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>CTAS</t>
-  </si>
-  <si>
-    <t>ETR</t>
+    <t>PKG</t>
+  </si>
+  <si>
+    <t>AZO</t>
   </si>
 </sst>
 </file>
@@ -622,37 +622,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2">
-        <v>124.5999984741211</v>
+        <v>124.6449966430664</v>
       </c>
       <c r="C2" s="3">
         <v>160</v>
       </c>
       <c r="D2" s="4">
-        <v>0.4234252</v>
+        <v>0.43136346</v>
       </c>
       <c r="E2" s="4">
-        <v>0.92</v>
+        <v>0.9262948207171314</v>
       </c>
       <c r="F2" s="4">
-        <v>0.6256286511536424</v>
+        <v>0.6373828724064659</v>
       </c>
       <c r="G2" s="4">
-        <v>1</v>
+        <v>0.99800796812749</v>
       </c>
       <c r="H2" s="4">
-        <v>0.3132233290941127</v>
+        <v>0.3026535352030876</v>
       </c>
       <c r="I2" s="4">
-        <v>0.9960000000000001</v>
+        <v>0.99601593625498</v>
       </c>
       <c r="J2" s="4">
-        <v>0.2324431291264102</v>
+        <v>0.2328882148793722</v>
       </c>
       <c r="K2" s="4">
-        <v>0.992</v>
+        <v>0.9920318725099601</v>
       </c>
       <c r="L2" s="4">
-        <v>0.9770000000000001</v>
+        <v>0.9780876494023903</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -660,37 +660,37 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>147.0200042724609</v>
+        <v>105.9875030517578</v>
       </c>
       <c r="C3" s="3">
-        <v>136</v>
+        <v>188</v>
       </c>
       <c r="D3" s="4">
-        <v>0.43539727</v>
+        <v>0.7168010500000001</v>
       </c>
       <c r="E3" s="4">
-        <v>0.926</v>
+        <v>0.9800796812749003</v>
       </c>
       <c r="F3" s="4">
-        <v>0.3493025468776094</v>
+        <v>0.5701513334028818</v>
       </c>
       <c r="G3" s="4">
-        <v>0.9760000000000001</v>
+        <v>0.99601593625498</v>
       </c>
       <c r="H3" s="4">
-        <v>0.2447718526180043</v>
+        <v>0.3682215534974662</v>
       </c>
       <c r="I3" s="4">
-        <v>0.9880000000000001</v>
+        <v>1</v>
       </c>
       <c r="J3" s="4">
-        <v>0.3144390369077849</v>
+        <v>0.141245826609589</v>
       </c>
       <c r="K3" s="4">
-        <v>1</v>
+        <v>0.9163346613545816</v>
       </c>
       <c r="L3" s="4">
-        <v>0.9725</v>
+        <v>0.9731075697211155</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -698,37 +698,37 @@
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>104</v>
+        <v>212.5700073242188</v>
       </c>
       <c r="C4" s="3">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4">
-        <v>0.7367736</v>
+        <v>0.548283</v>
       </c>
       <c r="E4" s="4">
-        <v>0.9780000000000001</v>
+        <v>0.9701195219123505</v>
       </c>
       <c r="F4" s="4">
-        <v>0.5575185485008949</v>
+        <v>0.3154958576623002</v>
       </c>
       <c r="G4" s="4">
-        <v>0.9960000000000001</v>
+        <v>0.9442231075697211</v>
       </c>
       <c r="H4" s="4">
-        <v>0.3501768409825758</v>
+        <v>0.2556454294367851</v>
       </c>
       <c r="I4" s="4">
-        <v>0.9980000000000001</v>
+        <v>0.9860557768924302</v>
       </c>
       <c r="J4" s="4">
-        <v>0.1198449114273079</v>
+        <v>0.176825563738029</v>
       </c>
       <c r="K4" s="4">
-        <v>0.912</v>
+        <v>0.9681274900398406</v>
       </c>
       <c r="L4" s="4">
-        <v>0.9710000000000001</v>
+        <v>0.9671314741035856</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -736,37 +736,37 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>211.4100036621094</v>
+        <v>149.1799926757812</v>
       </c>
       <c r="C5" s="3">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="D5" s="4">
-        <v>0.5598068</v>
+        <v>0.38915133</v>
       </c>
       <c r="E5" s="4">
-        <v>0.9620000000000001</v>
+        <v>0.9083665338645417</v>
       </c>
       <c r="F5" s="4">
-        <v>0.3043709856719368</v>
+        <v>0.3610071329722509</v>
       </c>
       <c r="G5" s="4">
-        <v>0.9560000000000001</v>
+        <v>0.9701195219123505</v>
       </c>
       <c r="H5" s="4">
-        <v>0.2485722939551019</v>
+        <v>0.261884546907417</v>
       </c>
       <c r="I5" s="4">
-        <v>0.99</v>
+        <v>0.9900398406374501</v>
       </c>
       <c r="J5" s="4">
-        <v>0.1704035760795447</v>
+        <v>0.3337505114968531</v>
       </c>
       <c r="K5" s="4">
-        <v>0.972</v>
+        <v>1</v>
       </c>
       <c r="L5" s="4">
-        <v>0.97</v>
+        <v>0.9671314741035856</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -774,37 +774,37 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>567.97998046875</v>
+        <v>574.1599731445312</v>
       </c>
       <c r="C6" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4">
-        <v>0.50310636</v>
+        <v>0.5069519</v>
       </c>
       <c r="E6" s="4">
-        <v>0.95</v>
+        <v>0.9541832669322708</v>
       </c>
       <c r="F6" s="4">
-        <v>0.3030650043730566</v>
+        <v>0.3194530189540006</v>
       </c>
       <c r="G6" s="4">
-        <v>0.9540000000000001</v>
+        <v>0.946215139442231</v>
       </c>
       <c r="H6" s="4">
-        <v>0.1798994031898343</v>
+        <v>0.1936301739182238</v>
       </c>
       <c r="I6" s="4">
-        <v>0.9740000000000001</v>
+        <v>0.9681274900398406</v>
       </c>
       <c r="J6" s="4">
-        <v>0.1104636902104316</v>
+        <v>0.1225462595054933</v>
       </c>
       <c r="K6" s="4">
-        <v>0.89</v>
+        <v>0.8764940239043824</v>
       </c>
       <c r="L6" s="4">
-        <v>0.9420000000000001</v>
+        <v>0.9362549800796812</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -812,37 +812,37 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>106.6600036621094</v>
+        <v>175.6699981689453</v>
       </c>
       <c r="C7" s="3">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="D7" s="4">
-        <v>0.2995056</v>
+        <v>0.36226773</v>
       </c>
       <c r="E7" s="4">
-        <v>0.82</v>
+        <v>0.8944223107569721</v>
       </c>
       <c r="F7" s="4">
-        <v>0.2706695325219066</v>
+        <v>0.2196336853689308</v>
       </c>
       <c r="G7" s="4">
-        <v>0.9340000000000001</v>
+        <v>0.8625498007968128</v>
       </c>
       <c r="H7" s="4">
-        <v>0.2329210614761974</v>
+        <v>0.1910340481097637</v>
       </c>
       <c r="I7" s="4">
-        <v>0.982</v>
+        <v>0.9641434262948206</v>
       </c>
       <c r="J7" s="4">
-        <v>0.2071073214729463</v>
+        <v>0.2921382628499906</v>
       </c>
       <c r="K7" s="4">
-        <v>0.99</v>
+        <v>0.99601593625498</v>
       </c>
       <c r="L7" s="4">
-        <v>0.9315</v>
+        <v>0.9292828685258964</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -850,37 +850,37 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>172.9499969482422</v>
+        <v>73.625</v>
       </c>
       <c r="C8" s="3">
-        <v>115</v>
+        <v>271</v>
       </c>
       <c r="D8" s="4">
-        <v>0.3932073</v>
+        <v>0.22845888</v>
       </c>
       <c r="E8" s="4">
-        <v>0.91</v>
+        <v>0.750996015936255</v>
       </c>
       <c r="F8" s="4">
-        <v>0.2002513290237264</v>
+        <v>0.366287975830311</v>
       </c>
       <c r="G8" s="4">
-        <v>0.86</v>
+        <v>0.9760956175298804</v>
       </c>
       <c r="H8" s="4">
-        <v>0.1442459810892962</v>
+        <v>0.1922780831038497</v>
       </c>
       <c r="I8" s="4">
-        <v>0.9380000000000002</v>
+        <v>0.9661354581673307</v>
       </c>
       <c r="J8" s="4">
-        <v>0.2721313311661346</v>
+        <v>0.3102865598755074</v>
       </c>
       <c r="K8" s="4">
-        <v>0.9960000000000001</v>
+        <v>0.99800796812749</v>
       </c>
       <c r="L8" s="4">
-        <v>0.926</v>
+        <v>0.922808764940239</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -888,37 +888,37 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>114.8949966430664</v>
+        <v>108.2200012207031</v>
       </c>
       <c r="C9" s="3">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D9" s="4">
-        <v>0.3623494</v>
+        <v>0.2536155</v>
       </c>
       <c r="E9" s="4">
-        <v>0.8860000000000001</v>
+        <v>0.7908366533864541</v>
       </c>
       <c r="F9" s="4">
-        <v>0.2656059215448754</v>
+        <v>0.2589576823326351</v>
       </c>
       <c r="G9" s="4">
-        <v>0.9280000000000002</v>
+        <v>0.9023904382470118</v>
       </c>
       <c r="H9" s="4">
-        <v>0.1196959117669167</v>
+        <v>0.2510982800081286</v>
       </c>
       <c r="I9" s="4">
-        <v>0.8880000000000001</v>
+        <v>0.9840637450199203</v>
       </c>
       <c r="J9" s="4">
-        <v>0.1478021817629725</v>
+        <v>0.2247623412535934</v>
       </c>
       <c r="K9" s="4">
-        <v>0.9520000000000001</v>
+        <v>0.9900398406374501</v>
       </c>
       <c r="L9" s="4">
-        <v>0.9135000000000001</v>
+        <v>0.9168326693227091</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -926,37 +926,37 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>280.8699951171875</v>
+        <v>90.19000244140625</v>
       </c>
       <c r="C10" s="3">
-        <v>71</v>
+        <v>221</v>
       </c>
       <c r="D10" s="4">
-        <v>0.43716228</v>
+        <v>0.71782184</v>
       </c>
       <c r="E10" s="4">
-        <v>0.9280000000000002</v>
+        <v>0.9820717131474104</v>
       </c>
       <c r="F10" s="4">
-        <v>0.16493286213088</v>
+        <v>0.525188828074123</v>
       </c>
       <c r="G10" s="4">
-        <v>0.784</v>
+        <v>0.9940239043824701</v>
       </c>
       <c r="H10" s="4">
-        <v>0.1883211627939856</v>
+        <v>0.1083938534286053</v>
       </c>
       <c r="I10" s="4">
-        <v>0.9760000000000001</v>
+        <v>0.8147410358565736</v>
       </c>
       <c r="J10" s="4">
-        <v>0.1639867035432324</v>
+        <v>0.1207903699919715</v>
       </c>
       <c r="K10" s="4">
-        <v>0.9660000000000001</v>
+        <v>0.8685258964143426</v>
       </c>
       <c r="L10" s="4">
-        <v>0.9135000000000001</v>
+        <v>0.9148406374501992</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -964,37 +964,37 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>228.8099975585938</v>
+        <v>116.4796981811523</v>
       </c>
       <c r="C11" s="3">
-        <v>87</v>
+        <v>171</v>
       </c>
       <c r="D11" s="4">
-        <v>0.27855277</v>
+        <v>0.3359239</v>
       </c>
       <c r="E11" s="4">
-        <v>0.78</v>
+        <v>0.8725099601593626</v>
       </c>
       <c r="F11" s="4">
-        <v>0.2022610245068862</v>
+        <v>0.2956050305761466</v>
       </c>
       <c r="G11" s="4">
-        <v>0.8680000000000001</v>
+        <v>0.9342629482071714</v>
       </c>
       <c r="H11" s="4">
-        <v>0.2726684184082237</v>
+        <v>0.1273854218464802</v>
       </c>
       <c r="I11" s="4">
-        <v>0.9940000000000001</v>
+        <v>0.8585657370517927</v>
       </c>
       <c r="J11" s="4">
-        <v>0.1663862960407343</v>
+        <v>0.1636333662009586</v>
       </c>
       <c r="K11" s="4">
-        <v>0.97</v>
+        <v>0.9521912350597609</v>
       </c>
       <c r="L11" s="4">
-        <v>0.903</v>
+        <v>0.9043824701195219</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1002,37 +1002,37 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>86.5</v>
+        <v>546.4199829101562</v>
       </c>
       <c r="C12" s="3">
-        <v>231</v>
+        <v>36</v>
       </c>
       <c r="D12" s="4">
-        <v>0.3022641</v>
+        <v>0.21338463</v>
       </c>
       <c r="E12" s="4">
-        <v>0.8260000000000001</v>
+        <v>0.7270916334661354</v>
       </c>
       <c r="F12" s="4">
-        <v>0.3176364488973624</v>
+        <v>0.2977525040046752</v>
       </c>
       <c r="G12" s="4">
-        <v>0.9660000000000001</v>
+        <v>0.9362549800796812</v>
       </c>
       <c r="H12" s="4">
-        <v>0.1343959236808779</v>
+        <v>0.1800759106953621</v>
       </c>
       <c r="I12" s="4">
-        <v>0.914</v>
+        <v>0.9561752988047809</v>
       </c>
       <c r="J12" s="4">
-        <v>0.1118251491899604</v>
+        <v>0.1833419338056191</v>
       </c>
       <c r="K12" s="4">
-        <v>0.892</v>
+        <v>0.9741035856573704</v>
       </c>
       <c r="L12" s="4">
-        <v>0.8995000000000001</v>
+        <v>0.898406374501992</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1040,37 +1040,37 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <v>545.7249755859375</v>
+        <v>100.1100006103516</v>
       </c>
       <c r="C13" s="3">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="D13" s="4">
-        <v>0.22008538</v>
+        <v>0.40062642</v>
       </c>
       <c r="E13" s="4">
-        <v>0.6960000000000001</v>
+        <v>0.9183266932270917</v>
       </c>
       <c r="F13" s="4">
-        <v>0.2867599974527179</v>
+        <v>0.2541255115880958</v>
       </c>
       <c r="G13" s="4">
-        <v>0.9440000000000001</v>
+        <v>0.8944223107569721</v>
       </c>
       <c r="H13" s="4">
-        <v>0.1772617252392633</v>
+        <v>0.1804032955099109</v>
       </c>
       <c r="I13" s="4">
-        <v>0.972</v>
+        <v>0.9581673306772908</v>
       </c>
       <c r="J13" s="4">
-        <v>0.1818368070958126</v>
+        <v>0.1053329021494137</v>
       </c>
       <c r="K13" s="4">
-        <v>0.98</v>
+        <v>0.8187250996015937</v>
       </c>
       <c r="L13" s="4">
-        <v>0.898</v>
+        <v>0.897410358565737</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1078,37 +1078,37 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <v>98.37999725341797</v>
+        <v>282.9498901367188</v>
       </c>
       <c r="C14" s="3">
-        <v>203</v>
+        <v>70</v>
       </c>
       <c r="D14" s="4">
-        <v>0.4228282</v>
+        <v>0.39815235</v>
       </c>
       <c r="E14" s="4">
-        <v>0.9180000000000001</v>
+        <v>0.9143426294820717</v>
       </c>
       <c r="F14" s="4">
-        <v>0.2483796547290808</v>
+        <v>0.1260695545190276</v>
       </c>
       <c r="G14" s="4">
-        <v>0.914</v>
+        <v>0.6733067729083665</v>
       </c>
       <c r="H14" s="4">
-        <v>0.1541529765245744</v>
+        <v>0.209587699590179</v>
       </c>
       <c r="I14" s="4">
-        <v>0.9480000000000001</v>
+        <v>0.9780876494023905</v>
       </c>
       <c r="J14" s="4">
-        <v>0.08623161736678317</v>
+        <v>0.1726062435068731</v>
       </c>
       <c r="K14" s="4">
-        <v>0.806</v>
+        <v>0.9621513944223108</v>
       </c>
       <c r="L14" s="4">
-        <v>0.8965000000000001</v>
+        <v>0.8819721115537849</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1116,37 +1116,37 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <v>86.70999908447266</v>
+        <v>228.7700042724609</v>
       </c>
       <c r="C15" s="3">
-        <v>230</v>
+        <v>87</v>
       </c>
       <c r="D15" s="4">
-        <v>0.78711593</v>
+        <v>0.22523153</v>
       </c>
       <c r="E15" s="4">
-        <v>0.99</v>
+        <v>0.743027888446215</v>
       </c>
       <c r="F15" s="4">
-        <v>0.4695677905323538</v>
+        <v>0.2019267646336372</v>
       </c>
       <c r="G15" s="4">
-        <v>0.992</v>
+        <v>0.8266932270916334</v>
       </c>
       <c r="H15" s="4">
-        <v>0.08685057700774558</v>
+        <v>0.2720949792933214</v>
       </c>
       <c r="I15" s="4">
-        <v>0.796</v>
+        <v>0.9920318725099601</v>
       </c>
       <c r="J15" s="4">
-        <v>0.07754439877110528</v>
+        <v>0.1661824254871017</v>
       </c>
       <c r="K15" s="4">
-        <v>0.774</v>
+        <v>0.9561752988047809</v>
       </c>
       <c r="L15" s="4">
-        <v>0.888</v>
+        <v>0.8794820717131473</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1154,37 +1154,37 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <v>111.8949966430664</v>
+        <v>87.38500213623047</v>
       </c>
       <c r="C16" s="3">
-        <v>178</v>
+        <v>228</v>
       </c>
       <c r="D16" s="4">
-        <v>0.3298738</v>
+        <v>0.25810206</v>
       </c>
       <c r="E16" s="4">
-        <v>0.8580000000000001</v>
+        <v>0.802788844621514</v>
       </c>
       <c r="F16" s="4">
-        <v>0.3061437010005785</v>
+        <v>0.3313163189516593</v>
       </c>
       <c r="G16" s="4">
-        <v>0.9580000000000001</v>
+        <v>0.9581673306772908</v>
       </c>
       <c r="H16" s="4">
-        <v>0.1552185331499011</v>
+        <v>0.1359637395381534</v>
       </c>
       <c r="I16" s="4">
-        <v>0.95</v>
+        <v>0.8745019920318725</v>
       </c>
       <c r="J16" s="4">
-        <v>0.07158588972609435</v>
+        <v>0.1232004975384907</v>
       </c>
       <c r="K16" s="4">
-        <v>0.7560000000000001</v>
+        <v>0.8804780876494023</v>
       </c>
       <c r="L16" s="4">
-        <v>0.8805000000000001</v>
+        <v>0.8789840637450199</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1192,37 +1192,37 @@
         <v>27</v>
       </c>
       <c r="B17" s="2">
-        <v>1577.650024414062</v>
+        <v>1625.75</v>
       </c>
       <c r="C17" s="3">
         <v>12</v>
       </c>
       <c r="D17" s="4">
-        <v>0.858163</v>
+        <v>0.8475752</v>
       </c>
       <c r="E17" s="4">
-        <v>0.992</v>
+        <v>0.9920318725099601</v>
       </c>
       <c r="F17" s="4">
-        <v>0.2321059663208143</v>
+        <v>0.2302867115322012</v>
       </c>
       <c r="G17" s="4">
-        <v>0.8960000000000001</v>
+        <v>0.8725099601593626</v>
       </c>
       <c r="H17" s="4">
-        <v>0.2716625805027748</v>
+        <v>0.2991034936707676</v>
       </c>
       <c r="I17" s="4">
-        <v>0.992</v>
+        <v>0.9940239043824701</v>
       </c>
       <c r="J17" s="4">
-        <v>0.03110333189407713</v>
+        <v>0.06253999041985114</v>
       </c>
       <c r="K17" s="4">
-        <v>0.6</v>
+        <v>0.6553784860557768</v>
       </c>
       <c r="L17" s="4">
-        <v>0.87</v>
+        <v>0.8784860557768923</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1230,37 +1230,37 @@
         <v>28</v>
       </c>
       <c r="B18" s="2">
-        <v>123.370002746582</v>
+        <v>151.7050018310547</v>
       </c>
       <c r="C18" s="3">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="D18" s="4">
-        <v>0.4909494</v>
+        <v>1.0739903</v>
       </c>
       <c r="E18" s="4">
-        <v>0.9460000000000001</v>
+        <v>0.99601593625498</v>
       </c>
       <c r="F18" s="4">
-        <v>0.2018514053550416</v>
+        <v>0.3474110202097985</v>
       </c>
       <c r="G18" s="4">
-        <v>0.8660000000000001</v>
+        <v>0.9621513944223108</v>
       </c>
       <c r="H18" s="4">
-        <v>0.05674256966735359</v>
+        <v>0.1539134435420167</v>
       </c>
       <c r="I18" s="4">
-        <v>0.6820000000000001</v>
+        <v>0.9143426294820717</v>
       </c>
       <c r="J18" s="4">
-        <v>0.1720501638116356</v>
+        <v>0.05607384808087658</v>
       </c>
       <c r="K18" s="4">
-        <v>0.9740000000000001</v>
+        <v>0.6274900398406374</v>
       </c>
       <c r="L18" s="4">
-        <v>0.8670000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1268,37 +1268,37 @@
         <v>29</v>
       </c>
       <c r="B19" s="2">
-        <v>98.12000274658203</v>
+        <v>125.3199996948242</v>
       </c>
       <c r="C19" s="3">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="D19" s="4">
-        <v>0.2585312</v>
+        <v>0.4342518</v>
       </c>
       <c r="E19" s="4">
-        <v>0.7460000000000001</v>
+        <v>0.9302788844621513</v>
       </c>
       <c r="F19" s="4">
-        <v>0.2960444336727264</v>
+        <v>0.2178920725598088</v>
       </c>
       <c r="G19" s="4">
-        <v>0.9480000000000001</v>
+        <v>0.8585657370517927</v>
       </c>
       <c r="H19" s="4">
-        <v>0.1025103124714423</v>
+        <v>0.08419940546380048</v>
       </c>
       <c r="I19" s="4">
-        <v>0.8440000000000001</v>
+        <v>0.7191235059760956</v>
       </c>
       <c r="J19" s="4">
-        <v>0.1263919419020428</v>
+        <v>0.1905756902097678</v>
       </c>
       <c r="K19" s="4">
-        <v>0.924</v>
+        <v>0.9800796812749003</v>
       </c>
       <c r="L19" s="4">
-        <v>0.8655</v>
+        <v>0.8720119521912351</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1306,37 +1306,37 @@
         <v>30</v>
       </c>
       <c r="B20" s="2">
-        <v>113.3349990844727</v>
+        <v>98.05000305175781</v>
       </c>
       <c r="C20" s="3">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="D20" s="4">
-        <v>0.21201527</v>
+        <v>0.26096547</v>
       </c>
       <c r="E20" s="4">
-        <v>0.6899999999999999</v>
+        <v>0.8067729083665338</v>
       </c>
       <c r="F20" s="4">
-        <v>0.2729991821294251</v>
+        <v>0.2704821038683261</v>
       </c>
       <c r="G20" s="4">
-        <v>0.9360000000000001</v>
+        <v>0.9183266932270917</v>
       </c>
       <c r="H20" s="4">
-        <v>0.1771745787800007</v>
+        <v>0.1624693363629127</v>
       </c>
       <c r="I20" s="4">
-        <v>0.97</v>
+        <v>0.9282868525896414</v>
       </c>
       <c r="J20" s="4">
-        <v>0.1047373343419593</v>
+        <v>0.1076593625180381</v>
       </c>
       <c r="K20" s="4">
-        <v>0.862</v>
+        <v>0.8247011952191236</v>
       </c>
       <c r="L20" s="4">
-        <v>0.8645</v>
+        <v>0.8695219123505976</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1344,37 +1344,37 @@
         <v>31</v>
       </c>
       <c r="B21" s="2">
-        <v>96.69999694824219</v>
+        <v>113.379997253418</v>
       </c>
       <c r="C21" s="3">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="D21" s="4">
-        <v>0.27312374</v>
+        <v>0.30191112</v>
       </c>
       <c r="E21" s="4">
-        <v>0.774</v>
+        <v>0.8386454183266931</v>
       </c>
       <c r="F21" s="4">
-        <v>0.2415450973039778</v>
+        <v>0.320130526507667</v>
       </c>
       <c r="G21" s="4">
-        <v>0.904</v>
+        <v>0.948207171314741</v>
       </c>
       <c r="H21" s="4">
-        <v>0.1484946707066969</v>
+        <v>0.1593677680637696</v>
       </c>
       <c r="I21" s="4">
-        <v>0.9420000000000001</v>
+        <v>0.9243027888446214</v>
       </c>
       <c r="J21" s="4">
-        <v>0.09240850220724114</v>
+        <v>0.08580730934294706</v>
       </c>
       <c r="K21" s="4">
-        <v>0.8260000000000001</v>
+        <v>0.7410358565737052</v>
       </c>
       <c r="L21" s="4">
-        <v>0.8615</v>
+        <v>0.8630478087649401</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1382,37 +1382,37 @@
         <v>32</v>
       </c>
       <c r="B22" s="2">
-        <v>55.97999954223633</v>
+        <v>114.8199996948242</v>
       </c>
       <c r="C22" s="3">
-        <v>357</v>
+        <v>174</v>
       </c>
       <c r="D22" s="4">
-        <v>0.23711336</v>
+        <v>0.16891408</v>
       </c>
       <c r="E22" s="4">
-        <v>0.722</v>
+        <v>0.6593625498007968</v>
       </c>
       <c r="F22" s="4">
-        <v>0.2655654373873375</v>
+        <v>0.3248875934945522</v>
       </c>
       <c r="G22" s="4">
-        <v>0.926</v>
+        <v>0.9521912350597609</v>
       </c>
       <c r="H22" s="4">
-        <v>0.1982979959721998</v>
+        <v>0.18385911012691</v>
       </c>
       <c r="I22" s="4">
-        <v>0.98</v>
+        <v>0.9621513944223108</v>
       </c>
       <c r="J22" s="4">
-        <v>0.07902849633210395</v>
+        <v>0.1192124358465988</v>
       </c>
       <c r="K22" s="4">
-        <v>0.78</v>
+        <v>0.8605577689243027</v>
       </c>
       <c r="L22" s="4">
-        <v>0.852</v>
+        <v>0.8585657370517927</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1420,37 +1420,37 @@
         <v>33</v>
       </c>
       <c r="B23" s="2">
-        <v>85.44000244140625</v>
+        <v>355.8699951171875</v>
       </c>
       <c r="C23" s="3">
-        <v>234</v>
+        <v>56</v>
       </c>
       <c r="D23" s="4">
-        <v>0.15152705</v>
+        <v>0.30854607</v>
       </c>
       <c r="E23" s="4">
-        <v>0.6</v>
+        <v>0.8466135458167331</v>
       </c>
       <c r="F23" s="4">
-        <v>0.2991339642082467</v>
+        <v>0.1696880801159462</v>
       </c>
       <c r="G23" s="4">
-        <v>0.95</v>
+        <v>0.7589641434262948</v>
       </c>
       <c r="H23" s="4">
-        <v>0.1297942745534814</v>
+        <v>0.1523505488690338</v>
       </c>
       <c r="I23" s="4">
-        <v>0.9080000000000001</v>
+        <v>0.9083665338645417</v>
       </c>
       <c r="J23" s="4">
-        <v>0.1297942745534814</v>
+        <v>0.1254229933709846</v>
       </c>
       <c r="K23" s="4">
-        <v>0.9320000000000001</v>
+        <v>0.8904382470119522</v>
       </c>
       <c r="L23" s="4">
-        <v>0.8475</v>
+        <v>0.8510956175298805</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1458,37 +1458,37 @@
         <v>34</v>
       </c>
       <c r="B24" s="2">
-        <v>146.3699951171875</v>
+        <v>56.70000076293945</v>
       </c>
       <c r="C24" s="3">
-        <v>136</v>
+        <v>352</v>
       </c>
       <c r="D24" s="4">
-        <v>1.1344905</v>
+        <v>0.2237854</v>
       </c>
       <c r="E24" s="4">
-        <v>0.9960000000000001</v>
+        <v>0.7410358565737052</v>
       </c>
       <c r="F24" s="4">
-        <v>0.3024559413996226</v>
+        <v>0.2697340331654258</v>
       </c>
       <c r="G24" s="4">
-        <v>0.9520000000000001</v>
+        <v>0.9163346613545816</v>
       </c>
       <c r="H24" s="4">
-        <v>0.1143508817337608</v>
+        <v>0.2057792621151548</v>
       </c>
       <c r="I24" s="4">
-        <v>0.8760000000000001</v>
+        <v>0.9760956175298804</v>
       </c>
       <c r="J24" s="4">
-        <v>0.01893492054488485</v>
+        <v>0.0929066999920809</v>
       </c>
       <c r="K24" s="4">
-        <v>0.552</v>
+        <v>0.7649402390438246</v>
       </c>
       <c r="L24" s="4">
-        <v>0.8440000000000001</v>
+        <v>0.8496015936254979</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1496,37 +1496,37 @@
         <v>35</v>
       </c>
       <c r="B25" s="2">
-        <v>80.69499969482422</v>
+        <v>98.86000061035156</v>
       </c>
       <c r="C25" s="3">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="D25" s="4">
-        <v>0.17882216</v>
+        <v>0.21331358</v>
       </c>
       <c r="E25" s="4">
-        <v>0.642</v>
+        <v>0.7250996015936255</v>
       </c>
       <c r="F25" s="4">
-        <v>0.2609591062506434</v>
+        <v>0.314588643273189</v>
       </c>
       <c r="G25" s="4">
-        <v>0.924</v>
+        <v>0.9422310756972111</v>
       </c>
       <c r="H25" s="4">
-        <v>0.1039901592493975</v>
+        <v>0.1021181222436475</v>
       </c>
       <c r="I25" s="4">
-        <v>0.85</v>
+        <v>0.7948207171314741</v>
       </c>
       <c r="J25" s="4">
-        <v>0.1274975553850659</v>
+        <v>0.1348869236330106</v>
       </c>
       <c r="K25" s="4">
-        <v>0.926</v>
+        <v>0.9043824701195219</v>
       </c>
       <c r="L25" s="4">
-        <v>0.8355</v>
+        <v>0.8416334661354581</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1534,37 +1534,37 @@
         <v>36</v>
       </c>
       <c r="B26" s="2">
-        <v>72.77999877929688</v>
+        <v>132.1849975585938</v>
       </c>
       <c r="C26" s="3">
-        <v>274</v>
+        <v>151</v>
       </c>
       <c r="D26" s="4">
-        <v>0.034928203</v>
+        <v>0.5436436</v>
       </c>
       <c r="E26" s="4">
-        <v>0.3840000000000001</v>
+        <v>0.9681274900398406</v>
       </c>
       <c r="F26" s="4">
-        <v>0.3820515354019392</v>
+        <v>0.5220347240774037</v>
       </c>
       <c r="G26" s="4">
-        <v>0.982</v>
+        <v>0.9920318725099601</v>
       </c>
       <c r="H26" s="4">
-        <v>0.1917874356603357</v>
+        <v>0.1821095670098422</v>
       </c>
       <c r="I26" s="4">
-        <v>0.9780000000000001</v>
+        <v>0.9601593625498007</v>
       </c>
       <c r="J26" s="4">
-        <v>0.2952482747472805</v>
+        <v>0.002853362981389238</v>
       </c>
       <c r="K26" s="4">
-        <v>0.9980000000000001</v>
+        <v>0.4342629482071713</v>
       </c>
       <c r="L26" s="4">
-        <v>0.8355</v>
+        <v>0.8386454183266931</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1572,37 +1572,37 @@
         <v>37</v>
       </c>
       <c r="B27" s="2">
-        <v>111.5500030517578</v>
+        <v>113.3199996948242</v>
       </c>
       <c r="C27" s="3">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D27" s="4">
-        <v>0.2705778</v>
+        <v>0.2049278</v>
       </c>
       <c r="E27" s="4">
-        <v>0.7680000000000001</v>
+        <v>0.7151394422310757</v>
       </c>
       <c r="F27" s="4">
-        <v>0.1931528215282373</v>
+        <v>0.2493696827628949</v>
       </c>
       <c r="G27" s="4">
-        <v>0.8440000000000001</v>
+        <v>0.8904382470119522</v>
       </c>
       <c r="H27" s="4">
-        <v>0.1017740036898409</v>
+        <v>0.1179443451382099</v>
       </c>
       <c r="I27" s="4">
-        <v>0.84</v>
+        <v>0.8346613545816733</v>
       </c>
       <c r="J27" s="4">
-        <v>0.1084062373636257</v>
+        <v>0.1259936444959877</v>
       </c>
       <c r="K27" s="4">
-        <v>0.88</v>
+        <v>0.892430278884462</v>
       </c>
       <c r="L27" s="4">
-        <v>0.8330000000000001</v>
+        <v>0.8331673306772909</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1610,37 +1610,37 @@
         <v>38</v>
       </c>
       <c r="B28" s="2">
-        <v>350.0599975585938</v>
+        <v>173.1950073242188</v>
       </c>
       <c r="C28" s="3">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="D28" s="4">
-        <v>0.30735934</v>
+        <v>0.34133673</v>
       </c>
       <c r="E28" s="4">
-        <v>0.83</v>
+        <v>0.8784860557768924</v>
       </c>
       <c r="F28" s="4">
-        <v>0.1437765758234342</v>
+        <v>0.1375612839976544</v>
       </c>
       <c r="G28" s="4">
-        <v>0.7340000000000001</v>
+        <v>0.699203187250996</v>
       </c>
       <c r="H28" s="4">
-        <v>0.1154047924586168</v>
+        <v>0.09674712597475681</v>
       </c>
       <c r="I28" s="4">
-        <v>0.8780000000000001</v>
+        <v>0.7629482071713147</v>
       </c>
       <c r="J28" s="4">
-        <v>0.107049135126157</v>
+        <v>0.2142957399918694</v>
       </c>
       <c r="K28" s="4">
-        <v>0.8660000000000001</v>
+        <v>0.9860557768924302</v>
       </c>
       <c r="L28" s="4">
-        <v>0.8270000000000001</v>
+        <v>0.8316733067729083</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1648,37 +1648,37 @@
         <v>39</v>
       </c>
       <c r="B29" s="2">
-        <v>46.91500091552734</v>
+        <v>618.8699951171875</v>
       </c>
       <c r="C29" s="3">
-        <v>426</v>
+        <v>32</v>
       </c>
       <c r="D29" s="4">
-        <v>0.19836962</v>
+        <v>0.43303013</v>
       </c>
       <c r="E29" s="4">
-        <v>0.6779999999999999</v>
+        <v>0.9282868525896414</v>
       </c>
       <c r="F29" s="4">
-        <v>0.4136405287988277</v>
+        <v>0.2550406148031321</v>
       </c>
       <c r="G29" s="4">
-        <v>0.9840000000000001</v>
+        <v>0.8964143426294821</v>
       </c>
       <c r="H29" s="4">
-        <v>0.1389158501502304</v>
+        <v>0.139685444593574</v>
       </c>
       <c r="I29" s="4">
-        <v>0.922</v>
+        <v>0.8844621513944223</v>
       </c>
       <c r="J29" s="4">
-        <v>0.063108991162575</v>
+        <v>0.04976839916926014</v>
       </c>
       <c r="K29" s="4">
-        <v>0.718</v>
+        <v>0.6095617529880478</v>
       </c>
       <c r="L29" s="4">
-        <v>0.8255</v>
+        <v>0.8296812749003983</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1686,37 +1686,37 @@
         <v>40</v>
       </c>
       <c r="B30" s="2">
-        <v>186.7400054931641</v>
+        <v>81.69999694824219</v>
       </c>
       <c r="C30" s="3">
-        <v>107</v>
+        <v>244</v>
       </c>
       <c r="D30" s="4">
-        <v>0.3813392</v>
+        <v>0.14255321</v>
       </c>
       <c r="E30" s="4">
-        <v>0.8980000000000001</v>
+        <v>0.6195219123505976</v>
       </c>
       <c r="F30" s="4">
-        <v>0.1633120658501431</v>
+        <v>0.290866129763208</v>
       </c>
       <c r="G30" s="4">
-        <v>0.782</v>
+        <v>0.9282868525896414</v>
       </c>
       <c r="H30" s="4">
-        <v>0.1557667155956822</v>
+        <v>0.1183450312118064</v>
       </c>
       <c r="I30" s="4">
-        <v>0.9540000000000001</v>
+        <v>0.8366533864541832</v>
       </c>
       <c r="J30" s="4">
-        <v>0.0422504180475614</v>
+        <v>0.1415397135198052</v>
       </c>
       <c r="K30" s="4">
-        <v>0.642</v>
+        <v>0.9203187250996016</v>
       </c>
       <c r="L30" s="4">
-        <v>0.8190000000000001</v>
+        <v>0.8261952191235059</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1724,37 +1724,37 @@
         <v>41</v>
       </c>
       <c r="B31" s="2">
-        <v>44.31000137329102</v>
+        <v>101.1149978637695</v>
       </c>
       <c r="C31" s="3">
-        <v>451</v>
+        <v>197</v>
       </c>
       <c r="D31" s="4">
-        <v>0.27116764</v>
+        <v>0.008272052</v>
       </c>
       <c r="E31" s="4">
-        <v>0.77</v>
+        <v>0.3705179282868526</v>
       </c>
       <c r="F31" s="4">
-        <v>0.3405418786580964</v>
+        <v>0.3750873608555305</v>
       </c>
       <c r="G31" s="4">
-        <v>0.9740000000000001</v>
+        <v>0.9800796812749003</v>
       </c>
       <c r="H31" s="4">
-        <v>0.1535202942531146</v>
+        <v>0.2575296339159239</v>
       </c>
       <c r="I31" s="4">
-        <v>0.9460000000000001</v>
+        <v>0.9880478087649402</v>
       </c>
       <c r="J31" s="4">
-        <v>0.02640730258741993</v>
+        <v>0.1673400445344533</v>
       </c>
       <c r="K31" s="4">
-        <v>0.586</v>
+        <v>0.9581673306772908</v>
       </c>
       <c r="L31" s="4">
-        <v>0.8190000000000001</v>
+        <v>0.824203187250996</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1762,37 +1762,37 @@
         <v>42</v>
       </c>
       <c r="B32" s="2">
-        <v>170.3300018310547</v>
+        <v>189.8999938964844</v>
       </c>
       <c r="C32" s="3">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D32" s="4">
-        <v>0.37035584</v>
+        <v>0.3714223</v>
       </c>
       <c r="E32" s="4">
-        <v>0.89</v>
+        <v>0.900398406374502</v>
       </c>
       <c r="F32" s="4">
-        <v>0.1231396665840618</v>
+        <v>0.1892459092839796</v>
       </c>
       <c r="G32" s="4">
-        <v>0.6940000000000001</v>
+        <v>0.802788844621514</v>
       </c>
       <c r="H32" s="4">
-        <v>0.06099606244915529</v>
+        <v>0.1707047762998734</v>
       </c>
       <c r="I32" s="4">
-        <v>0.7020000000000001</v>
+        <v>0.9422310756972111</v>
       </c>
       <c r="J32" s="4">
-        <v>0.1942087639343561</v>
+        <v>0.05988723467765733</v>
       </c>
       <c r="K32" s="4">
-        <v>0.9860000000000001</v>
+        <v>0.647410358565737</v>
       </c>
       <c r="L32" s="4">
-        <v>0.8180000000000001</v>
+        <v>0.8232071713147411</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1800,37 +1800,37 @@
         <v>43</v>
       </c>
       <c r="B33" s="2">
-        <v>608.760009765625</v>
+        <v>407.5249938964844</v>
       </c>
       <c r="C33" s="3">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D33" s="4">
-        <v>0.49297774</v>
+        <v>0.43858886</v>
       </c>
       <c r="E33" s="4">
-        <v>0.9480000000000001</v>
+        <v>0.9342629482071714</v>
       </c>
       <c r="F33" s="4">
-        <v>0.1802115332891648</v>
+        <v>0.2479254088228871</v>
       </c>
       <c r="G33" s="4">
-        <v>0.8180000000000001</v>
+        <v>0.8884462151394422</v>
       </c>
       <c r="H33" s="4">
-        <v>0.1166713222982735</v>
+        <v>0.1380644896270702</v>
       </c>
       <c r="I33" s="4">
-        <v>0.882</v>
+        <v>0.8764940239043824</v>
       </c>
       <c r="J33" s="4">
-        <v>0.03261917037828481</v>
+        <v>0.04341087706253646</v>
       </c>
       <c r="K33" s="4">
-        <v>0.606</v>
+        <v>0.5836653386454183</v>
       </c>
       <c r="L33" s="4">
-        <v>0.8135</v>
+        <v>0.8207171314741035</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1838,37 +1838,37 @@
         <v>44</v>
       </c>
       <c r="B34" s="2">
-        <v>49.18500137329102</v>
+        <v>86.05999755859375</v>
       </c>
       <c r="C34" s="3">
-        <v>406</v>
+        <v>232</v>
       </c>
       <c r="D34" s="4">
-        <v>0.15752494</v>
+        <v>0.10573435</v>
       </c>
       <c r="E34" s="4">
-        <v>0.612</v>
+        <v>0.5438247011952191</v>
       </c>
       <c r="F34" s="4">
-        <v>0.2762512625367774</v>
+        <v>0.3253147489410459</v>
       </c>
       <c r="G34" s="4">
-        <v>0.9380000000000002</v>
+        <v>0.9541832669322708</v>
       </c>
       <c r="H34" s="4">
-        <v>0.1462176971693469</v>
+        <v>0.1347256723769508</v>
       </c>
       <c r="I34" s="4">
-        <v>0.9399999999999999</v>
+        <v>0.8725099601593626</v>
       </c>
       <c r="J34" s="4">
-        <v>0.068774465103105</v>
+        <v>0.1379926232617451</v>
       </c>
       <c r="K34" s="4">
-        <v>0.7460000000000001</v>
+        <v>0.9083665338645417</v>
       </c>
       <c r="L34" s="4">
-        <v>0.8090000000000001</v>
+        <v>0.8197211155378485</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1876,37 +1876,37 @@
         <v>45</v>
       </c>
       <c r="B35" s="2">
-        <v>38.20500183105469</v>
+        <v>283.1000061035156</v>
       </c>
       <c r="C35" s="3">
-        <v>523</v>
+        <v>70</v>
       </c>
       <c r="D35" s="4">
-        <v>0.24404955</v>
+        <v>0.2620505</v>
       </c>
       <c r="E35" s="4">
-        <v>0.732</v>
+        <v>0.8107569721115537</v>
       </c>
       <c r="F35" s="4">
-        <v>0.2471716017005507</v>
+        <v>0.2001517554731588</v>
       </c>
       <c r="G35" s="4">
-        <v>0.91</v>
+        <v>0.8227091633466135</v>
       </c>
       <c r="H35" s="4">
-        <v>0.08462435916193613</v>
+        <v>0.1582247461074998</v>
       </c>
       <c r="I35" s="4">
-        <v>0.79</v>
+        <v>0.9223107569721115</v>
       </c>
       <c r="J35" s="4">
-        <v>0.08523456661698424</v>
+        <v>0.07015951069436083</v>
       </c>
       <c r="K35" s="4">
-        <v>0.804</v>
+        <v>0.6812749003984063</v>
       </c>
       <c r="L35" s="4">
-        <v>0.8090000000000001</v>
+        <v>0.8092629482071713</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1914,37 +1914,37 @@
         <v>46</v>
       </c>
       <c r="B36" s="2">
-        <v>54.96500015258789</v>
+        <v>47.29000091552734</v>
       </c>
       <c r="C36" s="3">
-        <v>363</v>
+        <v>422</v>
       </c>
       <c r="D36" s="4">
-        <v>0.28164196</v>
+        <v>0.1804719</v>
       </c>
       <c r="E36" s="4">
-        <v>0.7880000000000001</v>
+        <v>0.6792828685258964</v>
       </c>
       <c r="F36" s="4">
-        <v>0.3117594593514428</v>
+        <v>0.4381892406958415</v>
       </c>
       <c r="G36" s="4">
-        <v>0.9640000000000001</v>
+        <v>0.9840637450199203</v>
       </c>
       <c r="H36" s="4">
-        <v>0.1033470624329061</v>
+        <v>0.1452557551762566</v>
       </c>
       <c r="I36" s="4">
-        <v>0.8460000000000001</v>
+        <v>0.8904382470119522</v>
       </c>
       <c r="J36" s="4">
-        <v>0.04120096986815557</v>
+        <v>0.07160661162311345</v>
       </c>
       <c r="K36" s="4">
-        <v>0.636</v>
+        <v>0.6832669322709163</v>
       </c>
       <c r="L36" s="4">
-        <v>0.8085000000000001</v>
+        <v>0.8092629482071713</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1952,37 +1952,37 @@
         <v>47</v>
       </c>
       <c r="B37" s="2">
-        <v>278.8349914550781</v>
+        <v>753.0499877929688</v>
       </c>
       <c r="C37" s="3">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="D37" s="4">
-        <v>0.2815317</v>
+        <v>0.50767255</v>
       </c>
       <c r="E37" s="4">
-        <v>0.786</v>
+        <v>0.9561752988047809</v>
       </c>
       <c r="F37" s="4">
-        <v>0.1862247116965276</v>
+        <v>0.2253074349065068</v>
       </c>
       <c r="G37" s="4">
-        <v>0.8340000000000001</v>
+        <v>0.8685258964143426</v>
       </c>
       <c r="H37" s="4">
-        <v>0.1407289836587566</v>
+        <v>0.09266083198462584</v>
       </c>
       <c r="I37" s="4">
-        <v>0.9280000000000002</v>
+        <v>0.7470119521912351</v>
       </c>
       <c r="J37" s="4">
-        <v>0.05403713029565734</v>
+        <v>0.05908248630713344</v>
       </c>
       <c r="K37" s="4">
-        <v>0.6860000000000001</v>
+        <v>0.6434262948207171</v>
       </c>
       <c r="L37" s="4">
-        <v>0.8085000000000001</v>
+        <v>0.8037848605577689</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1990,37 +1990,37 @@
         <v>48</v>
       </c>
       <c r="B38" s="2">
-        <v>397.1300048828125</v>
+        <v>44.97999954223633</v>
       </c>
       <c r="C38" s="3">
-        <v>50</v>
+        <v>444</v>
       </c>
       <c r="D38" s="4">
-        <v>0.46321464</v>
+        <v>0.23933053</v>
       </c>
       <c r="E38" s="4">
-        <v>0.9340000000000001</v>
+        <v>0.7649402390438246</v>
       </c>
       <c r="F38" s="4">
-        <v>0.2176513823447813</v>
+        <v>0.3206388712735067</v>
       </c>
       <c r="G38" s="4">
-        <v>0.8880000000000001</v>
+        <v>0.950199203187251</v>
       </c>
       <c r="H38" s="4">
-        <v>0.1116670851136551</v>
+        <v>0.1578456236210292</v>
       </c>
       <c r="I38" s="4">
-        <v>0.872</v>
+        <v>0.9183266932270917</v>
       </c>
       <c r="J38" s="4">
-        <v>0.01679595830600527</v>
+        <v>0.04192729789349527</v>
       </c>
       <c r="K38" s="4">
-        <v>0.54</v>
+        <v>0.5776892430278884</v>
       </c>
       <c r="L38" s="4">
-        <v>0.8085</v>
+        <v>0.8027888446215139</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2028,37 +2028,37 @@
         <v>49</v>
       </c>
       <c r="B39" s="2">
-        <v>8325.525390625</v>
+        <v>38.77999877929688</v>
       </c>
       <c r="C39" s="3">
-        <v>2</v>
+        <v>515</v>
       </c>
       <c r="D39" s="4">
-        <v>0.33791602</v>
+        <v>0.23548388</v>
       </c>
       <c r="E39" s="4">
-        <v>0.8760000000000001</v>
+        <v>0.7589641434262948</v>
       </c>
       <c r="F39" s="4">
-        <v>0.1219311136603417</v>
+        <v>0.263520558547274</v>
       </c>
       <c r="G39" s="4">
-        <v>0.6920000000000001</v>
+        <v>0.9123505976095617</v>
       </c>
       <c r="H39" s="4">
-        <v>0.07364902526608438</v>
+        <v>0.08931091436400329</v>
       </c>
       <c r="I39" s="4">
-        <v>0.7440000000000001</v>
+        <v>0.7370517928286853</v>
       </c>
       <c r="J39" s="4">
-        <v>0.1169114985901598</v>
+        <v>0.1015676783569365</v>
       </c>
       <c r="K39" s="4">
-        <v>0.9060000000000001</v>
+        <v>0.802788844621514</v>
       </c>
       <c r="L39" s="4">
-        <v>0.8045000000000001</v>
+        <v>0.8027888446215139</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2066,37 +2066,37 @@
         <v>50</v>
       </c>
       <c r="B40" s="2">
-        <v>126.6900024414062</v>
+        <v>66.23999786376953</v>
       </c>
       <c r="C40" s="3">
-        <v>157</v>
+        <v>301</v>
       </c>
       <c r="D40" s="4">
-        <v>0.5906931</v>
+        <v>0.28697038</v>
       </c>
       <c r="E40" s="4">
-        <v>0.9660000000000001</v>
+        <v>0.8306772908366534</v>
       </c>
       <c r="F40" s="4">
-        <v>0.4730070576196337</v>
+        <v>0.1761006442660243</v>
       </c>
       <c r="G40" s="4">
-        <v>0.9940000000000001</v>
+        <v>0.7729083665338645</v>
       </c>
       <c r="H40" s="4">
-        <v>0.129152960115304</v>
+        <v>0.1101590921209116</v>
       </c>
       <c r="I40" s="4">
-        <v>0.904</v>
+        <v>0.8207171314741035</v>
       </c>
       <c r="J40" s="4">
-        <v>-0.03883574270093357</v>
+        <v>0.0959629280086958</v>
       </c>
       <c r="K40" s="4">
-        <v>0.352</v>
+        <v>0.7828685258964143</v>
       </c>
       <c r="L40" s="4">
-        <v>0.804</v>
+        <v>0.8017928286852589</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2104,37 +2104,37 @@
         <v>51</v>
       </c>
       <c r="B41" s="2">
-        <v>77.15000152587891</v>
+        <v>35.95999908447266</v>
       </c>
       <c r="C41" s="3">
-        <v>259</v>
+        <v>556</v>
       </c>
       <c r="D41" s="4">
-        <v>0.30297518</v>
+        <v>0.03559482</v>
       </c>
       <c r="E41" s="4">
-        <v>0.8280000000000001</v>
+        <v>0.4083665338645418</v>
       </c>
       <c r="F41" s="4">
-        <v>0.3303299340794887</v>
+        <v>0.3642133676643143</v>
       </c>
       <c r="G41" s="4">
-        <v>0.9680000000000001</v>
+        <v>0.9721115537848606</v>
       </c>
       <c r="H41" s="4">
-        <v>0.08053475127848754</v>
+        <v>0.1755475287707858</v>
       </c>
       <c r="I41" s="4">
-        <v>0.78</v>
+        <v>0.9521912350597609</v>
       </c>
       <c r="J41" s="4">
-        <v>0.03432102578999372</v>
+        <v>0.1188550020960658</v>
       </c>
       <c r="K41" s="4">
-        <v>0.618</v>
+        <v>0.8565737051792829</v>
       </c>
       <c r="L41" s="4">
-        <v>0.7985</v>
+        <v>0.7973107569721115</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2142,37 +2142,37 @@
         <v>52</v>
       </c>
       <c r="B42" s="2">
-        <v>98.18499755859375</v>
+        <v>8371.5302734375</v>
       </c>
       <c r="C42" s="3">
-        <v>203</v>
+        <v>2</v>
       </c>
       <c r="D42" s="4">
-        <v>-0.013700008</v>
+        <v>0.30353642</v>
       </c>
       <c r="E42" s="4">
-        <v>0.292</v>
+        <v>0.8426294820717131</v>
       </c>
       <c r="F42" s="4">
-        <v>0.3533687611925811</v>
+        <v>0.1181884569758271</v>
       </c>
       <c r="G42" s="4">
-        <v>0.9780000000000001</v>
+        <v>0.6613545816733066</v>
       </c>
       <c r="H42" s="4">
-        <v>0.2431998506920274</v>
+        <v>0.1051525113448845</v>
       </c>
       <c r="I42" s="4">
-        <v>0.9840000000000001</v>
+        <v>0.8067729083665338</v>
       </c>
       <c r="J42" s="4">
-        <v>0.1335141358266473</v>
+        <v>0.1230832871793142</v>
       </c>
       <c r="K42" s="4">
-        <v>0.9380000000000002</v>
+        <v>0.8784860557768924</v>
       </c>
       <c r="L42" s="4">
-        <v>0.798</v>
+        <v>0.7973107569721115</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2180,37 +2180,37 @@
         <v>53</v>
       </c>
       <c r="B43" s="2">
-        <v>148.9949951171875</v>
+        <v>55.22000122070312</v>
       </c>
       <c r="C43" s="3">
-        <v>134</v>
+        <v>362</v>
       </c>
       <c r="D43" s="4">
-        <v>0.29103124</v>
+        <v>0.2559743</v>
       </c>
       <c r="E43" s="4">
-        <v>0.8080000000000002</v>
+        <v>0.792828685258964</v>
       </c>
       <c r="F43" s="4">
-        <v>0.1709899916671679</v>
+        <v>0.3278811250541336</v>
       </c>
       <c r="G43" s="4">
-        <v>0.7980000000000002</v>
+        <v>0.9561752988047809</v>
       </c>
       <c r="H43" s="4">
-        <v>0.1179288356684444</v>
+        <v>0.1169427929542041</v>
       </c>
       <c r="I43" s="4">
-        <v>0.8860000000000001</v>
+        <v>0.8306772908366534</v>
       </c>
       <c r="J43" s="4">
-        <v>0.05542960295910478</v>
+        <v>0.04603145033212218</v>
       </c>
       <c r="K43" s="4">
-        <v>0.6940000000000001</v>
+        <v>0.593625498007968</v>
       </c>
       <c r="L43" s="4">
-        <v>0.7965000000000001</v>
+        <v>0.7933266932270916</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2218,37 +2218,37 @@
         <v>54</v>
       </c>
       <c r="B44" s="2">
-        <v>101.9400024414062</v>
+        <v>38.47999954223633</v>
       </c>
       <c r="C44" s="3">
-        <v>196</v>
+        <v>519</v>
       </c>
       <c r="D44" s="4">
-        <v>0.34755778</v>
+        <v>0.040938973</v>
       </c>
       <c r="E44" s="4">
-        <v>0.882</v>
+        <v>0.4203187250996016</v>
       </c>
       <c r="F44" s="4">
-        <v>0.2584654450103981</v>
+        <v>0.3491184081225552</v>
       </c>
       <c r="G44" s="4">
-        <v>0.922</v>
+        <v>0.9661354581673307</v>
       </c>
       <c r="H44" s="4">
-        <v>0.04897791722125754</v>
+        <v>0.1604342496774591</v>
       </c>
       <c r="I44" s="4">
-        <v>0.66</v>
+        <v>0.9262948207171314</v>
       </c>
       <c r="J44" s="4">
-        <v>0.06298228174581864</v>
+        <v>0.1147160785619873</v>
       </c>
       <c r="K44" s="4">
-        <v>0.7160000000000001</v>
+        <v>0.8406374501992032</v>
       </c>
       <c r="L44" s="4">
-        <v>0.795</v>
+        <v>0.7883466135458167</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2256,37 +2256,37 @@
         <v>55</v>
       </c>
       <c r="B45" s="2">
-        <v>39.10499954223633</v>
+        <v>102.4100036621094</v>
       </c>
       <c r="C45" s="3">
-        <v>511</v>
+        <v>195</v>
       </c>
       <c r="D45" s="4">
-        <v>0.38383484</v>
+        <v>0.32280886</v>
       </c>
       <c r="E45" s="4">
-        <v>0.902</v>
+        <v>0.8645418326693226</v>
       </c>
       <c r="F45" s="4">
-        <v>0.1953812112819765</v>
+        <v>0.2286901894878674</v>
       </c>
       <c r="G45" s="4">
-        <v>0.8560000000000001</v>
+        <v>0.8705179282868525</v>
       </c>
       <c r="H45" s="4">
-        <v>0.03840495656050487</v>
+        <v>0.1012351427917215</v>
       </c>
       <c r="I45" s="4">
-        <v>0.6240000000000001</v>
+        <v>0.7888446215139442</v>
       </c>
       <c r="J45" s="4">
-        <v>0.07935412741720775</v>
+        <v>0.05485187569218573</v>
       </c>
       <c r="K45" s="4">
-        <v>0.7880000000000001</v>
+        <v>0.6235059760956175</v>
       </c>
       <c r="L45" s="4">
-        <v>0.7925000000000001</v>
+        <v>0.7868525896414342</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2294,37 +2294,37 @@
         <v>56</v>
       </c>
       <c r="B46" s="2">
-        <v>41.32500076293945</v>
+        <v>103.5299987792969</v>
       </c>
       <c r="C46" s="3">
-        <v>483</v>
+        <v>193</v>
       </c>
       <c r="D46" s="4">
-        <v>0.2920245</v>
+        <v>0.31092548</v>
       </c>
       <c r="E46" s="4">
-        <v>0.8120000000000001</v>
+        <v>0.850597609561753</v>
       </c>
       <c r="F46" s="4">
-        <v>0.1799899833040544</v>
+        <v>0.2564211819052323</v>
       </c>
       <c r="G46" s="4">
-        <v>0.8160000000000001</v>
+        <v>0.900398406374502</v>
       </c>
       <c r="H46" s="4">
-        <v>0.07077073226276367</v>
+        <v>0.07128647447817758</v>
       </c>
       <c r="I46" s="4">
-        <v>0.732</v>
+        <v>0.6653386454183267</v>
       </c>
       <c r="J46" s="4">
-        <v>0.08039217680887459</v>
+        <v>0.07956201388963473</v>
       </c>
       <c r="K46" s="4">
-        <v>0.79</v>
+        <v>0.7231075697211155</v>
       </c>
       <c r="L46" s="4">
-        <v>0.7875000000000001</v>
+        <v>0.7848605577689243</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2332,37 +2332,37 @@
         <v>57</v>
       </c>
       <c r="B47" s="2">
-        <v>567.4600219726562</v>
+        <v>49.8849983215332</v>
       </c>
       <c r="C47" s="3">
-        <v>35</v>
+        <v>400</v>
       </c>
       <c r="D47" s="4">
-        <v>0.1548537</v>
+        <v>0.11550629</v>
       </c>
       <c r="E47" s="4">
-        <v>0.606</v>
+        <v>0.5657370517928286</v>
       </c>
       <c r="F47" s="4">
-        <v>0.1015109949511075</v>
+        <v>0.2999036681548351</v>
       </c>
       <c r="G47" s="4">
-        <v>0.6560000000000001</v>
+        <v>0.9382470119521912</v>
       </c>
       <c r="H47" s="4">
-        <v>0.137550629776671</v>
+        <v>0.1509813491080305</v>
       </c>
       <c r="I47" s="4">
-        <v>0.92</v>
+        <v>0.898406374501992</v>
       </c>
       <c r="J47" s="4">
-        <v>0.1596436551669558</v>
+        <v>0.0839851765607164</v>
       </c>
       <c r="K47" s="4">
-        <v>0.9640000000000001</v>
+        <v>0.7330677290836652</v>
       </c>
       <c r="L47" s="4">
-        <v>0.7865000000000001</v>
+        <v>0.7838645418326693</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2370,37 +2370,37 @@
         <v>58</v>
       </c>
       <c r="B48" s="2">
-        <v>104.75</v>
+        <v>185.5</v>
       </c>
       <c r="C48" s="3">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="D48" s="4">
-        <v>0.47528517</v>
+        <v>0.23218822</v>
       </c>
       <c r="E48" s="4">
-        <v>0.9420000000000001</v>
+        <v>0.7549800796812748</v>
       </c>
       <c r="F48" s="4">
-        <v>0.1769245236212245</v>
+        <v>0.08102497816506905</v>
       </c>
       <c r="G48" s="4">
-        <v>0.8120000000000001</v>
+        <v>0.5517928286852589</v>
       </c>
       <c r="H48" s="4">
-        <v>0.05927198751752879</v>
+        <v>0.1667439254001187</v>
       </c>
       <c r="I48" s="4">
-        <v>0.6899999999999999</v>
+        <v>0.9382470119521912</v>
       </c>
       <c r="J48" s="4">
-        <v>0.05648006442702325</v>
+        <v>0.1242136260825024</v>
       </c>
       <c r="K48" s="4">
-        <v>0.7020000000000001</v>
+        <v>0.8884462151394422</v>
       </c>
       <c r="L48" s="4">
-        <v>0.7865</v>
+        <v>0.7833665338645418</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2408,37 +2408,37 @@
         <v>59</v>
       </c>
       <c r="B49" s="2">
-        <v>100.6800003051758</v>
+        <v>78.08499908447266</v>
       </c>
       <c r="C49" s="3">
-        <v>198</v>
+        <v>256</v>
       </c>
       <c r="D49" s="4">
-        <v>0.3369311</v>
+        <v>0.27578807</v>
       </c>
       <c r="E49" s="4">
-        <v>0.87</v>
+        <v>0.8286852589641434</v>
       </c>
       <c r="F49" s="4">
-        <v>0.2136957124757009</v>
+        <v>0.3651916289023598</v>
       </c>
       <c r="G49" s="4">
-        <v>0.882</v>
+        <v>0.9741035856573704</v>
       </c>
       <c r="H49" s="4">
-        <v>0.07561246476287355</v>
+        <v>0.08488829731245535</v>
       </c>
       <c r="I49" s="4">
-        <v>0.754</v>
+        <v>0.7231075697211155</v>
       </c>
       <c r="J49" s="4">
-        <v>0.03703235395838882</v>
+        <v>0.0468561860594518</v>
       </c>
       <c r="K49" s="4">
-        <v>0.63</v>
+        <v>0.5996015936254979</v>
       </c>
       <c r="L49" s="4">
-        <v>0.784</v>
+        <v>0.7813745019920317</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2446,37 +2446,37 @@
         <v>60</v>
       </c>
       <c r="B50" s="2">
-        <v>736.6400146484375</v>
+        <v>194.9900054931641</v>
       </c>
       <c r="C50" s="3">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="D50" s="4">
-        <v>0.53069437</v>
+        <v>0.2573303</v>
       </c>
       <c r="E50" s="4">
-        <v>0.9580000000000001</v>
+        <v>0.798804780876494</v>
       </c>
       <c r="F50" s="4">
-        <v>0.1900065992555945</v>
+        <v>0.1844868677123951</v>
       </c>
       <c r="G50" s="4">
-        <v>0.8360000000000001</v>
+        <v>0.798804780876494</v>
       </c>
       <c r="H50" s="4">
-        <v>0.06539425495643479</v>
+        <v>0.09956091957959312</v>
       </c>
       <c r="I50" s="4">
-        <v>0.7160000000000001</v>
+        <v>0.7788844621513944</v>
       </c>
       <c r="J50" s="4">
-        <v>0.0360036529761893</v>
+        <v>0.08599277181273816</v>
       </c>
       <c r="K50" s="4">
-        <v>0.6240000000000001</v>
+        <v>0.743027888446215</v>
       </c>
       <c r="L50" s="4">
-        <v>0.7835000000000001</v>
+        <v>0.7798804780876494</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2484,37 +2484,37 @@
         <v>61</v>
       </c>
       <c r="B51" s="2">
-        <v>116.0400009155273</v>
+        <v>3179.715087890625</v>
       </c>
       <c r="C51" s="3">
-        <v>172</v>
+        <v>6</v>
       </c>
       <c r="D51" s="4">
-        <v>0.24241495</v>
+        <v>0.26464486</v>
       </c>
       <c r="E51" s="4">
-        <v>0.73</v>
+        <v>0.8167330677290836</v>
       </c>
       <c r="F51" s="4">
-        <v>0.2012948265306985</v>
+        <v>0.1640230446678349</v>
       </c>
       <c r="G51" s="4">
-        <v>0.8640000000000001</v>
+        <v>0.750996015936255</v>
       </c>
       <c r="H51" s="4">
-        <v>0.0493760082660742</v>
+        <v>0.07331429557520461</v>
       </c>
       <c r="I51" s="4">
-        <v>0.662</v>
+        <v>0.6752988047808764</v>
       </c>
       <c r="J51" s="4">
-        <v>0.1077804383343899</v>
+        <v>0.1210390626734932</v>
       </c>
       <c r="K51" s="4">
-        <v>0.872</v>
+        <v>0.8725099601593626</v>
       </c>
       <c r="L51" s="4">
-        <v>0.782</v>
+        <v>0.7788844621513944</v>
       </c>
     </row>
   </sheetData>
